--- a/project2/Workbook2.xlsx
+++ b/project2/Workbook2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/2018Spring/CS575/CS575/project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,88 +27,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Coarse-Static</t>
-  </si>
-  <si>
-    <t>Coarse-Dynamic</t>
-  </si>
-  <si>
-    <t>Fine-Static</t>
-  </si>
-  <si>
-    <t>Fine-Dynamic</t>
-  </si>
-  <si>
-    <t>CS1</t>
-  </si>
-  <si>
-    <t>CS2</t>
-  </si>
-  <si>
-    <t>CS4</t>
-  </si>
-  <si>
-    <t>CS8</t>
-  </si>
-  <si>
-    <t>CS16</t>
-  </si>
-  <si>
-    <t>CD1</t>
-  </si>
-  <si>
-    <t>CD2</t>
-  </si>
-  <si>
-    <t>CD4</t>
-  </si>
-  <si>
-    <t>CD8</t>
-  </si>
-  <si>
-    <t>CD16</t>
-  </si>
-  <si>
-    <t>FS1</t>
-  </si>
-  <si>
-    <t>FS2</t>
-  </si>
-  <si>
-    <t>FS4</t>
-  </si>
-  <si>
-    <t>FS8</t>
-  </si>
-  <si>
-    <t>FS16</t>
-  </si>
-  <si>
-    <t>FD1</t>
-  </si>
-  <si>
-    <t>FD2</t>
-  </si>
-  <si>
-    <t>FD4</t>
-  </si>
-  <si>
-    <t>FD8</t>
-  </si>
-  <si>
-    <t>FD16</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t>Coarse+Static</t>
+  </si>
+  <si>
+    <t>Coarse+Dynamic</t>
+  </si>
+  <si>
+    <t>Fine+Static</t>
+  </si>
+  <si>
+    <t>Fine+Dynamic</t>
+  </si>
+  <si>
+    <t>Coarse+Static+1Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Static+2Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Static+4Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Static+8Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Static+16Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Dynamic+1Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Dynamic+2Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Dynamic+4Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Dynamic+8Thread</t>
+  </si>
+  <si>
+    <t>Coarse+Dynamic+16Thread</t>
+  </si>
+  <si>
+    <t>Fine+Static+1Thread</t>
+  </si>
+  <si>
+    <t>Fine+Static+2Thread</t>
+  </si>
+  <si>
+    <t>Fine+Static+4Thread</t>
+  </si>
+  <si>
+    <t>Fine+Static+8Thread</t>
+  </si>
+  <si>
+    <t>Fine+Static+16Thread</t>
+  </si>
+  <si>
+    <t>Fine+Dynamic+1Thread</t>
+  </si>
+  <si>
+    <t>Fine+Dynamic+2Thread</t>
+  </si>
+  <si>
+    <t>Fine+Dynamic+4Thread</t>
+  </si>
+  <si>
+    <t>Fine+Dynamic+8Thread</t>
+  </si>
+  <si>
+    <t>Fine+Dynamic+16Thread</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,13 +147,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -164,40 +196,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0338392115312788"/>
+          <c:y val="0.0874848116646415"/>
+          <c:w val="0.948182638835199"/>
+          <c:h val="0.845508175390591"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -210,7 +221,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coarse-Static</c:v>
+                  <c:v>Coarse+Static</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -298,7 +309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coarse-Dynamic</c:v>
+                  <c:v>Coarse+Dynamic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -386,7 +397,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fine-Static</c:v>
+                  <c:v>Fine+Static</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -474,7 +485,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fine-Dynamic</c:v>
+                  <c:v>Fine+Dynamic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -563,11 +574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="741726848"/>
-        <c:axId val="741739936"/>
+        <c:axId val="1761184800"/>
+        <c:axId val="1761187360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="741726848"/>
+        <c:axId val="1761184800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="741739936"/>
+        <c:crossAx val="1761187360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -618,7 +629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="741739936"/>
+        <c:axId val="1761187360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="741726848"/>
+        <c:crossAx val="1761184800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -682,7 +693,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.257566013348041"/>
+          <c:y val="0.0233897494283446"/>
+          <c:w val="0.49593145000147"/>
+          <c:h val="0.0458690598061633"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1297,15 +1317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>420370</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>551180</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1590,18 +1610,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1617,8 +1637,23 @@
       <c r="F1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1642,8 +1677,30 @@
         <f>AVERAGE(B12:F12)</f>
         <v>73.525951800000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>C2/B2</f>
+        <v>1.9495203129804974</v>
+      </c>
+      <c r="K2">
+        <f>D2/B2</f>
+        <v>3.7462403312486643</v>
+      </c>
+      <c r="L2">
+        <f>E2/B2</f>
+        <v>6.6675493637682184</v>
+      </c>
+      <c r="M2">
+        <f>F2/B2</f>
+        <v>7.5910138962744664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1667,8 +1724,30 @@
         <f>AVERAGE(B18:F18)</f>
         <v>66.953108799999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J5" si="0">C3/B3</f>
+        <v>2.5638050534582377</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" si="1">D3/B3</f>
+        <v>4.0743640748386358</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="2">E3/B3</f>
+        <v>5.9843511143876738</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="3">F3/B3</f>
+        <v>6.9286368842595705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1692,8 +1771,30 @@
         <f>AVERAGE(B24:F24)</f>
         <v>8.6121417999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.4648618977856152</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.97576206312686</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1.7872112268096318</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.93137517486518895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1818,30 @@
         <f>AVERAGE(B30:F30)</f>
         <v>6.0615044000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.1575941309326838</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1.3495433062173472</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.2298412006032675</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>0.90722779017730526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1861,7 @@
         <v>9.6853379999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1881,7 @@
         <v>18.769959</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1778,7 +1901,7 @@
         <v>36.329673</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +1921,7 @@
         <v>64.527855000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1941,7 @@
         <v>74.103967999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1838,7 +1961,7 @@
         <v>9.6702929999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1858,7 +1981,7 @@
         <v>24.748808</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -2120,6 +2243,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>